--- a/data/trans_orig/POLIPATOLOGÍA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Edad-trans_orig.xlsx
@@ -3728,12 +3728,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">

--- a/data/trans_orig/POLIPATOLOGÍA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en C.Valenciana</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en C.Valenciana (tasa de respuesta: 99,81%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/POLIPATOLOGÍA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>979</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>382</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2858</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>597</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>164</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>1552</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2319</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>813</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61446</t>
+          <t>75755</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59911</t>
+          <t>74638</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62255</t>
+          <t>76352</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61497</t>
+          <t>65645</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59924</t>
+          <t>64690</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62239</t>
+          <t>66078</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>122943</t>
+          <t>141400</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>121184</t>
+          <t>140052</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>124228</t>
+          <t>142163</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,43%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>789</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>218</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4252</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5103</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68359</t>
+          <t>73699</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67203</t>
+          <t>72108</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68818</t>
+          <t>74270</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60852</t>
+          <t>66542</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>59092</t>
+          <t>64799</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62017</t>
+          <t>67591</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>129211</t>
+          <t>140241</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>127149</t>
+          <t>138399</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>130494</t>
+          <t>141660</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>98,63%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5490</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6153</t>
+          <t>7179</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>4914</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8361</t>
+          <t>9957</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>9643</t>
+          <t>11266</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7184</t>
+          <t>8531</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>12667</t>
+          <t>14614</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91482</t>
+          <t>100092</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89482</t>
+          <t>97682</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92880</t>
+          <t>101542</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91655</t>
+          <t>103861</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89447</t>
+          <t>101083</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93697</t>
+          <t>106126</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>183137</t>
+          <t>203953</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>180113</t>
+          <t>200605</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>185596</t>
+          <t>206688</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,04%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12412</t>
+          <t>10976</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9765</t>
+          <t>8404</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15644</t>
+          <t>13863</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15991</t>
+          <t>15595</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12890</t>
+          <t>12541</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19728</t>
+          <t>19236</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>28403</t>
+          <t>26572</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>24130</t>
+          <t>22289</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>33328</t>
+          <t>31029</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>125788</t>
+          <t>133442</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>122556</t>
+          <t>130555</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>128435</t>
+          <t>136014</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>122099</t>
+          <t>136861</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>118362</t>
+          <t>133220</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>125200</t>
+          <t>139915</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>247888</t>
+          <t>270302</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>242963</t>
+          <t>265845</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>252161</t>
+          <t>274585</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>89,55%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>92,49%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>27134</t>
+          <t>24384</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22786</t>
+          <t>20718</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31416</t>
+          <t>28438</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28494</t>
+          <t>28302</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>24610</t>
+          <t>24234</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>33622</t>
+          <t>33366</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>55627</t>
+          <t>52686</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>49695</t>
+          <t>46738</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>61405</t>
+          <t>58647</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>20,85%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>99073</t>
+          <t>104881</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94791</t>
+          <t>100827</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>103421</t>
+          <t>108547</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>81,14%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>118211</t>
+          <t>123720</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>113083</t>
+          <t>118656</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>122095</t>
+          <t>127788</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,58%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>77,08%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>83,22%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>217284</t>
+          <t>228601</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>211506</t>
+          <t>222640</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>223216</t>
+          <t>234549</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>79,62%</t>
+          <t>81,27%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>83,38%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>33985</t>
+          <t>33111</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29817</t>
+          <t>29271</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38883</t>
+          <t>37272</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35538</t>
+          <t>35530</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31083</t>
+          <t>31540</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>39843</t>
+          <t>39869</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>69523</t>
+          <t>68641</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>63082</t>
+          <t>63027</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>75585</t>
+          <t>74469</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>33,81%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>73386</t>
+          <t>71228</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>68488</t>
+          <t>67067</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>77554</t>
+          <t>75068</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>64,28%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>72,23%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>79496</t>
+          <t>80392</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>75191</t>
+          <t>76053</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>83951</t>
+          <t>84382</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>69,35%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>65,61%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>72,98%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>152881</t>
+          <t>151620</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>146819</t>
+          <t>145792</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>159322</t>
+          <t>157234</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>68,74%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>66,01%</t>
+          <t>66,19%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
+          <t>71,39%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>44538</t>
+          <t>39916</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40062</t>
+          <t>36196</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>49187</t>
+          <t>44149</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>46,33%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>51,17%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>61607</t>
+          <t>60461</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>56576</t>
+          <t>56022</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>66869</t>
+          <t>65263</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>106145</t>
+          <t>100377</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>99735</t>
+          <t>94235</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>113117</t>
+          <t>106942</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>48,41%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>51585</t>
+          <t>49170</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>46936</t>
+          <t>44937</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>56061</t>
+          <t>52890</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>59,37%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>71753</t>
+          <t>71366</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>66491</t>
+          <t>66564</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>76784</t>
+          <t>75805</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>123338</t>
+          <t>120536</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>116366</t>
+          <t>113971</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>129748</t>
+          <t>126678</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>50,71%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>57,34%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3137,32 +3137,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>123429</t>
+          <t>114243</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>114566</t>
+          <t>105535</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>132629</t>
+          <t>123091</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3172,32 +3172,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>151272</t>
+          <t>150262</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>140931</t>
+          <t>141128</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>161116</t>
+          <t>160032</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>274701</t>
+          <t>264506</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>261953</t>
+          <t>253413</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>288036</t>
+          <t>277916</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -3250,32 +3250,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>571121</t>
+          <t>608267</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>561921</t>
+          <t>599419</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>579984</t>
+          <t>616975</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>83,5%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>605561</t>
+          <t>648388</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>595717</t>
+          <t>638618</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>615902</t>
+          <t>657522</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>78,71%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>81,38%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1176682</t>
+          <t>1256654</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1163347</t>
+          <t>1243244</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1189430</t>
+          <t>1267747</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>81,07%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>80,15%</t>
+          <t>81,73%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>83,34%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18115</t>
+          <t>16868</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1641</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>18154</t>
+          <t>17429</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -3876,12 +3876,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>166238</t>
+          <t>167485</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182718</t>
+          <t>182751</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>402435</t>
+          <t>403160</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>418948</t>
+          <t>419012</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,63%</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8960</t>
+          <t>9728</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>532</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10961</t>
+          <t>10017</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>14154</t>
+          <t>14421</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>220408</t>
+          <t>219640</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>303467</t>
+          <t>304411</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313788</t>
+          <t>313896</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>529642</t>
+          <t>529375</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>541822</t>
+          <t>541915</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,35%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>99,65%</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16123</t>
+          <t>16228</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14348</t>
+          <t>15050</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>29426</t>
+          <t>30116</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20945</t>
+          <t>21835</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>40437</t>
+          <t>41269</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>294646</t>
+          <t>294541</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>307054</t>
+          <t>307207</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,8%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>293187</t>
+          <t>292497</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>308265</t>
+          <t>307563</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>592944</t>
+          <t>592112</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>612436</t>
+          <t>611546</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>93,48%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>96,55%</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10168</t>
+          <t>11941</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60831</t>
+          <t>61677</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49386</t>
+          <t>47790</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>79069</t>
+          <t>78666</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>46226</t>
+          <t>45586</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>129861</t>
+          <t>130004</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,6%</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>566333</t>
+          <t>565487</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>616996</t>
+          <t>615223</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,3%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>325733</t>
+          <t>326136</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>355416</t>
+          <t>357012</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,47%</t>
+          <t>80,57%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>87,8%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>902105</t>
+          <t>901962</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>985740</t>
+          <t>986380</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>95,58%</t>
         </is>
       </c>
     </row>
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>51038</t>
+          <t>51588</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>79527</t>
+          <t>77560</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>57771</t>
+          <t>58494</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>79238</t>
+          <t>80406</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>115687</t>
+          <t>114487</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>149514</t>
+          <t>150361</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>22,85%</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>259602</t>
+          <t>261569</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>288091</t>
+          <t>287541</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,55%</t>
+          <t>77,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>239656</t>
+          <t>238488</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>261123</t>
+          <t>260400</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>74,79%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>81,88%</t>
+          <t>81,66%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>508510</t>
+          <t>507663</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>542337</t>
+          <t>543537</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>77,28%</t>
+          <t>77,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>82,6%</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44627</t>
+          <t>44319</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>66039</t>
+          <t>64251</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>161356</t>
+          <t>160078</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>396615</t>
+          <t>409568</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>87,62%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>204094</t>
+          <t>203812</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>517388</t>
+          <t>533770</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>78,39%</t>
+          <t>80,87%</t>
         </is>
       </c>
     </row>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>141327</t>
+          <t>143115</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>162739</t>
+          <t>163047</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>69,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>56027</t>
+          <t>43074</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>291286</t>
+          <t>292564</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>142620</t>
+          <t>126238</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>455914</t>
+          <t>456196</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>69,08%</t>
+          <t>69,12%</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>52619</t>
+          <t>52452</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>71590</t>
+          <t>71344</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>102483</t>
+          <t>102860</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>124726</t>
+          <t>123707</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>43,82%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>160081</t>
+          <t>161107</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>189527</t>
+          <t>191784</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>41,69%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>49,62%</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>80185</t>
+          <t>80431</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>99156</t>
+          <t>99323</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>52,83%</t>
+          <t>52,99%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>65,33%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>109984</t>
+          <t>111003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>132227</t>
+          <t>131850</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>47,29%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>56,34%</t>
+          <t>56,18%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>196958</t>
+          <t>194701</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>226404</t>
+          <t>225378</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>58,31%</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>144829</t>
+          <t>147607</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>262539</t>
+          <t>263931</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>387000</t>
+          <t>387714</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1022130</t>
+          <t>1010790</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>45,79%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>586076</t>
+          <t>583110</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1340328</t>
+          <t>1365564</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>31,51%</t>
         </is>
       </c>
     </row>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1839267</t>
+          <t>1837875</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1956977</t>
+          <t>1954199</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>87,51%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1210312</t>
+          <t>1221652</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1845442</t>
+          <t>1844728</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>54,21%</t>
+          <t>54,72%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>82,63%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2993921</t>
+          <t>2968685</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3748173</t>
+          <t>3751139</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>69,08%</t>
+          <t>68,49%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>86,55%</t>
         </is>
       </c>
     </row>
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2143</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7433</t>
+          <t>7636</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8416</t>
+          <t>8302</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18103</t>
+          <t>17639</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11486</t>
+          <t>11302</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>21689</t>
+          <t>22326</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57240</t>
+          <t>57037</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62687</t>
+          <t>62530</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43437</t>
+          <t>43901</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53124</t>
+          <t>53238</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>104525</t>
+          <t>103888</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>114728</t>
+          <t>114912</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>91,05%</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9703</t>
+          <t>9304</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19671</t>
+          <t>19372</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28924</t>
+          <t>29155</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44340</t>
+          <t>45660</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>40762</t>
+          <t>40537</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>59746</t>
+          <t>59314</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>23,57%</t>
         </is>
       </c>
     </row>
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>104000</t>
+          <t>104299</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>113968</t>
+          <t>114367</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>83691</t>
+          <t>82371</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>99107</t>
+          <t>98876</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>65,37%</t>
+          <t>64,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>77,41%</t>
+          <t>77,23%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>191956</t>
+          <t>192388</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>210940</t>
+          <t>211165</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>76,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>83,89%</t>
         </is>
       </c>
     </row>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19776</t>
+          <t>19666</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33787</t>
+          <t>32752</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41491</t>
+          <t>42404</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>57985</t>
+          <t>59172</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>66043</t>
+          <t>65756</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>88208</t>
+          <t>88176</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>32,56%</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>105580</t>
+          <t>106615</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>119591</t>
+          <t>119701</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73446</t>
+          <t>72259</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89940</t>
+          <t>89027</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>54,98%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>182589</t>
+          <t>182621</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>204754</t>
+          <t>205041</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>67,43%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>75,72%</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33289</t>
+          <t>33188</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50394</t>
+          <t>51041</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49059</t>
+          <t>49123</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>64966</t>
+          <t>64728</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>87429</t>
+          <t>87004</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>111245</t>
+          <t>111381</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>46,96%</t>
         </is>
       </c>
     </row>
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>67257</t>
+          <t>66610</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>84362</t>
+          <t>84463</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>71,71%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>54566</t>
+          <t>54804</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>70473</t>
+          <t>70409</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>58,96%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>125938</t>
+          <t>125802</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>149754</t>
+          <t>150179</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>63,14%</t>
+          <t>63,32%</t>
         </is>
       </c>
     </row>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>38924</t>
+          <t>39797</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>54955</t>
+          <t>55810</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>66552</t>
+          <t>67079</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>81713</t>
+          <t>82102</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>57,44%</t>
+          <t>57,9%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>111076</t>
+          <t>109888</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>133690</t>
+          <t>132772</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>62,08%</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43058</t>
+          <t>42203</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>59089</t>
+          <t>58216</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34147</t>
+          <t>33758</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>49308</t>
+          <t>48781</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>80184</t>
+          <t>81102</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>102798</t>
+          <t>103986</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>48,62%</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37652</t>
+          <t>37124</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49616</t>
+          <t>49104</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>71,06%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>57869</t>
+          <t>58118</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>70026</t>
+          <t>70001</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>65,77%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>79,25%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>98706</t>
+          <t>98593</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>116262</t>
+          <t>116279</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>62,69%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>73,83%</t>
+          <t>73,85%</t>
         </is>
       </c>
     </row>
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>19486</t>
+          <t>19998</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31450</t>
+          <t>31978</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>18334</t>
+          <t>18359</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>30491</t>
+          <t>30242</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>20,75%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>41200</t>
+          <t>41183</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>58756</t>
+          <t>58869</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>37,39%</t>
         </is>
       </c>
     </row>
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>49358</t>
+          <t>49325</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>58211</t>
+          <t>58611</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>71,53%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>84,36%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>94691</t>
+          <t>94027</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>103764</t>
+          <t>103438</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>82,22%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>146124</t>
+          <t>146688</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>159256</t>
+          <t>159440</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>79,69%</t>
+          <t>80,0%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>86,95%</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10795</t>
+          <t>10395</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19648</t>
+          <t>19681</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>10601</t>
+          <t>10927</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>19674</t>
+          <t>20338</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>24115</t>
+          <t>23931</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>37247</t>
+          <t>36683</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>20,0%</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>211247</t>
+          <t>212904</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>250807</t>
+          <t>249124</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>371992</t>
+          <t>373168</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>413082</t>
+          <t>413686</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>54,42%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>594332</t>
+          <t>594875</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>653724</t>
+          <t>651530</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>45,23%</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>430677</t>
+          <t>432360</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>470237</t>
+          <t>468580</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>69,0%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>346036</t>
+          <t>345432</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>387126</t>
+          <t>385950</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>51,0%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>786878</t>
+          <t>789072</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>846270</t>
+          <t>845727</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>58,74%</t>
+          <t>58,71%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/POLIPATOLOGÍA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGÍA-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>6700</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1552</t>
+          <t>17678</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>6700</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2924</t>
+          <t>18097</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75755</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74638</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76352</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65645</t>
+          <t>212955</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>64690</t>
+          <t>201977</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66078</t>
+          <t>217596</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,75%</t>
+          <t>99,06%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>209</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>141400</t>
+          <t>454220</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>140052</t>
+          <t>442823</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142163</t>
+          <t>458933</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,57%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>10704</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>875</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>10729</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3388</t>
+          <t>6630</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>2143</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>5230</t>
+          <t>14911</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73699</t>
+          <t>258959</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72108</t>
+          <t>251270</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74270</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,71%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66542</t>
+          <t>279838</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64799</t>
+          <t>272724</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67591</t>
+          <t>282578</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>397</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>140241</t>
+          <t>538796</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>138399</t>
+          <t>530515</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>141660</t>
+          <t>543283</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>99,61%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>10909</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>4824</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>20743</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7179</t>
+          <t>24977</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4914</t>
+          <t>17588</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9957</t>
+          <t>34926</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>11266</t>
+          <t>35886</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8531</t>
+          <t>26457</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14614</t>
+          <t>47570</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>100092</t>
+          <t>357409</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97682</t>
+          <t>347575</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>101542</t>
+          <t>363494</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>103861</t>
+          <t>348408</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>101083</t>
+          <t>338459</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>106126</t>
+          <t>355797</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>203953</t>
+          <t>705817</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>200605</t>
+          <t>694133</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>206688</t>
+          <t>715246</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>96,43%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10976</t>
+          <t>36086</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8404</t>
+          <t>25919</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13863</t>
+          <t>51077</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15595</t>
+          <t>62184</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12541</t>
+          <t>51652</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19236</t>
+          <t>76169</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>127</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>26572</t>
+          <t>98270</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>22289</t>
+          <t>81738</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>31029</t>
+          <t>116451</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>13,46%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>133442</t>
+          <t>387855</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>130555</t>
+          <t>372864</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>136014</t>
+          <t>398022</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>567</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>136861</t>
+          <t>379108</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>133220</t>
+          <t>365123</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>139915</t>
+          <t>389640</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>85,91%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>923</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>270302</t>
+          <t>766964</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>265845</t>
+          <t>748783</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>274585</t>
+          <t>783496</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>90,55%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24384</t>
+          <t>68483</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20718</t>
+          <t>55631</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28438</t>
+          <t>83303</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>120</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28302</t>
+          <t>76154</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>24234</t>
+          <t>64745</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>33366</t>
+          <t>88951</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>24,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>195</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>52686</t>
+          <t>144636</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>46738</t>
+          <t>125721</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>58647</t>
+          <t>164322</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>22,56%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>104881</t>
+          <t>299560</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>100827</t>
+          <t>284740</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>108547</t>
+          <t>312412</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,14%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>446</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>123720</t>
+          <t>284212</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>118656</t>
+          <t>271415</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>127788</t>
+          <t>295621</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,38%</t>
+          <t>78,87%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>75,32%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>84,06%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>769</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>228601</t>
+          <t>583772</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>222640</t>
+          <t>564086</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>234549</t>
+          <t>602687</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>81,27%</t>
+          <t>80,14%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>79,15%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>82,74%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>33111</t>
+          <t>59071</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29271</t>
+          <t>48205</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>37272</t>
+          <t>69581</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>25,64%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>35530</t>
+          <t>102668</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31540</t>
+          <t>90796</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>39869</t>
+          <t>114746</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>260</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>68641</t>
+          <t>161739</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>63027</t>
+          <t>144848</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>74469</t>
+          <t>177888</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>35,55%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>71228</t>
+          <t>171333</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>67067</t>
+          <t>160823</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>75068</t>
+          <t>182199</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>68,27%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>79,08%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>304</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>80392</t>
+          <t>167364</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>76053</t>
+          <t>155286</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>84382</t>
+          <t>179236</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>69,35%</t>
+          <t>61,98%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>66,38%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>538</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>151620</t>
+          <t>338697</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>145792</t>
+          <t>322548</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>157234</t>
+          <t>355588</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>66,19%</t>
+          <t>64,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>71,06%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>39916</t>
+          <t>68381</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>36196</t>
+          <t>58178</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>44149</t>
+          <t>78751</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>217</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>60461</t>
+          <t>124873</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>56022</t>
+          <t>113199</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>65263</t>
+          <t>136373</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>45,86%</t>
+          <t>48,44%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>52,9%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>316</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>100377</t>
+          <t>193254</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>94235</t>
+          <t>177584</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>106942</t>
+          <t>210980</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>49,83%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>49170</t>
+          <t>97200</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>44937</t>
+          <t>86830</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>52890</t>
+          <t>107403</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>58,7%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>52,44%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>64,86%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>226</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>71366</t>
+          <t>132934</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>66564</t>
+          <t>121434</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>75805</t>
+          <t>144608</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>54,14%</t>
+          <t>51,56%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>56,09%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>358</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>120536</t>
+          <t>230133</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>113971</t>
+          <t>212407</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>126678</t>
+          <t>245803</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>58,06%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>674</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3132,107 +3132,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>114243</t>
+          <t>245943</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>105535</t>
+          <t>219695</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>123091</t>
+          <t>276996</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>647</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>150262</t>
+          <t>401171</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>141128</t>
+          <t>371465</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>160032</t>
+          <t>429750</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>948</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>264506</t>
+          <t>647114</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>253413</t>
+          <t>604911</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>277916</t>
+          <t>685155</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>16,06%</t>
         </is>
       </c>
     </row>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3377</t>
+          <t>1594</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>608267</t>
+          <t>1813583</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>599419</t>
+          <t>1782530</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>616975</t>
+          <t>1839831</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>88,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>3599</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>648388</t>
+          <t>1804818</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>638618</t>
+          <t>1776239</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>657522</t>
+          <t>1834524</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>81,19%</t>
+          <t>81,81%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>82,33%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>6976</t>
+          <t>3958</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1256654</t>
+          <t>3618401</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1243244</t>
+          <t>3580360</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1267747</t>
+          <t>3660604</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>82,61%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>85,82%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2059526</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2059526</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2059526</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2205989</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2205989</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2205989</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8543</t>
+          <t>4906</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4265515</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4265515</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4265515</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Andalucia (tasa de respuesta: 99,94%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3718,107 +3718,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2143</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7636</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6370</t>
+          <t>12269</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>8302</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16868</t>
+          <t>17639</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>6370</t>
+          <t>16316</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>11302</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17429</t>
+          <t>22326</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>17,69%</t>
         </is>
       </c>
     </row>
@@ -3831,107 +3831,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>60627</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>57037</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>62530</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>130</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>177983</t>
+          <t>49271</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>167485</t>
+          <t>43901</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182751</t>
+          <t>53238</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>80,06%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>86,51%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>283</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>414219</t>
+          <t>109898</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>403160</t>
+          <t>103888</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>419012</t>
+          <t>114912</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>91,05%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4061,107 +4061,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>13746</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9304</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9728</t>
+          <t>19372</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3582</t>
+          <t>36177</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>29155</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10017</t>
+          <t>45660</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>6227</t>
+          <t>49923</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>40537</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>14421</t>
+          <t>59314</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>23,57%</t>
         </is>
       </c>
     </row>
@@ -4174,107 +4174,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>238</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>226722</t>
+          <t>109925</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>219640</t>
+          <t>104299</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>114367</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>209</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>310846</t>
+          <t>91854</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>304411</t>
+          <t>82371</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313896</t>
+          <t>98876</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>64,34%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>77,23%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>447</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>537569</t>
+          <t>201779</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>529375</t>
+          <t>192388</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>541915</t>
+          <t>211165</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>76,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>83,89%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>558</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251702</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4404,107 +4404,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8569</t>
+          <t>25761</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3562</t>
+          <t>19666</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16228</t>
+          <t>32752</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>18,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>23,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21265</t>
+          <t>50206</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15050</t>
+          <t>42404</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>30116</t>
+          <t>59172</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>45,02%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>182</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>29833</t>
+          <t>75966</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>21835</t>
+          <t>65756</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>41269</t>
+          <t>88176</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>32,56%</t>
         </is>
       </c>
     </row>
@@ -4517,107 +4517,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>302200</t>
+          <t>113606</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>294541</t>
+          <t>106615</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>307207</t>
+          <t>119701</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,24%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>301348</t>
+          <t>81225</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>292497</t>
+          <t>72259</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>307563</t>
+          <t>89027</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>61,8%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>54,98%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>451</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>603548</t>
+          <t>194831</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>592112</t>
+          <t>182621</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>611546</t>
+          <t>205041</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,48%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>75,72%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>633</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4747,107 +4747,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33342</t>
+          <t>41308</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11941</t>
+          <t>33188</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61677</t>
+          <t>51041</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>35,11%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59619</t>
+          <t>56694</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47790</t>
+          <t>49123</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78666</t>
+          <t>64728</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>54,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>219</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>92962</t>
+          <t>98003</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>45586</t>
+          <t>87004</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>130004</t>
+          <t>111381</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>46,96%</t>
         </is>
       </c>
     </row>
@@ -4860,107 +4860,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>593822</t>
+          <t>76343</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>565487</t>
+          <t>66610</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>615223</t>
+          <t>84463</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>345183</t>
+          <t>62838</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>326136</t>
+          <t>54804</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>357012</t>
+          <t>70409</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>85,27%</t>
+          <t>52,57%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,57%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>363</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>939004</t>
+          <t>139180</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>901962</t>
+          <t>125802</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>986380</t>
+          <t>150179</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>58,68%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>53,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>63,32%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5090,107 +5090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>63688</t>
+          <t>47510</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>51588</t>
+          <t>39797</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>77560</t>
+          <t>55810</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>48,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>40,6%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>68250</t>
+          <t>74653</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>58494</t>
+          <t>67079</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>80406</t>
+          <t>82102</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>57,9%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>70,86%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>305</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>131938</t>
+          <t>122164</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>114487</t>
+          <t>109888</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>150361</t>
+          <t>132772</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>62,08%</t>
         </is>
       </c>
     </row>
@@ -5203,107 +5203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>275441</t>
+          <t>50503</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>261569</t>
+          <t>42203</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>287541</t>
+          <t>58216</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>77,13%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>59,4%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>250644</t>
+          <t>41207</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>238488</t>
+          <t>33758</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>260400</t>
+          <t>48781</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,6%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>74,79%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>202</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>526086</t>
+          <t>91710</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>507663</t>
+          <t>81102</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>543537</t>
+          <t>103986</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>48,62%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5433,107 +5433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>54562</t>
+          <t>43459</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44319</t>
+          <t>37124</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64251</t>
+          <t>49104</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>71,06%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>160</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>295914</t>
+          <t>64462</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>160078</t>
+          <t>58118</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>409568</t>
+          <t>70001</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>65,37%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>65,77%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>265</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>350476</t>
+          <t>107920</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>203812</t>
+          <t>98593</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>533770</t>
+          <t>116279</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>68,54%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>80,87%</t>
+          <t>73,85%</t>
         </is>
       </c>
     </row>
@@ -5546,107 +5546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>152804</t>
+          <t>25643</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>143115</t>
+          <t>19998</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>163047</t>
+          <t>31978</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>156728</t>
+          <t>23898</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>43074</t>
+          <t>18359</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>292564</t>
+          <t>30242</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>142</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>309532</t>
+          <t>49542</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>126238</t>
+          <t>41183</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>456196</t>
+          <t>58869</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>31,46%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>69,12%</t>
+          <t>37,39%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5776,107 +5776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>61744</t>
+          <t>54451</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>52452</t>
+          <t>49325</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>71344</t>
+          <t>58611</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>40,68%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>261</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>113405</t>
+          <t>99435</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>102860</t>
+          <t>94027</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>123707</t>
+          <t>103438</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>48,32%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>43,82%</t>
+          <t>82,22%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>408</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>175149</t>
+          <t>153886</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>161107</t>
+          <t>146688</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>191784</t>
+          <t>159440</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>45,32%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>80,0%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>86,95%</t>
         </is>
       </c>
     </row>
@@ -5889,107 +5889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>90031</t>
+          <t>14555</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>80431</t>
+          <t>10395</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>99323</t>
+          <t>19681</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>15,06%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>65,44%</t>
+          <t>28,52%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>121305</t>
+          <t>14930</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>111003</t>
+          <t>10927</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>131850</t>
+          <t>20338</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>51,68%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>56,18%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>211336</t>
+          <t>29485</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>194701</t>
+          <t>23931</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>225378</t>
+          <t>36683</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>50,38%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>58,31%</t>
+          <t>20,0%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>114365</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>183371</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6119,107 +6119,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>224550</t>
+          <t>230282</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>147607</t>
+          <t>212904</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>263931</t>
+          <t>249124</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>964</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>568405</t>
+          <t>393895</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>387714</t>
+          <t>373168</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>1010790</t>
+          <t>413686</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>792955</t>
+          <t>624177</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>583110</t>
+          <t>594875</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>1365564</t>
+          <t>651530</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>45,23%</t>
         </is>
       </c>
     </row>
@@ -6232,107 +6232,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1594</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1877256</t>
+          <t>451202</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1837875</t>
+          <t>432360</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1954199</t>
+          <t>468580</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>68,76%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>909</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1664037</t>
+          <t>365223</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1221652</t>
+          <t>345432</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1844728</t>
+          <t>385950</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>48,11%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>82,63%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3958</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3541294</t>
+          <t>816425</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2968685</t>
+          <t>789072</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>3751139</t>
+          <t>845727</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>56,67%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>68,49%</t>
+          <t>54,77%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>86,55%</t>
+          <t>58,71%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2101806</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2101806</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2101806</t>
+          <t>681484</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2232442</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2232442</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2232442</t>
+          <t>759118</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4906</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4334249</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4334249</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4334249</t>
+          <t>1440602</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polipatología (3 o más enfermedades crónicas) en Barcelona (tasa de respuesta: 100,0%)</t>
+          <t>Polipatología (3 o más enfermedades crónicas) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9692,107 +9692,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4046</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2143</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7636</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,26%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>11,81%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>12269</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8302</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>17639</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>19,94%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>13,49%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>28,66%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>16316</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11302</t>
+          <t>813</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>22326</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -9805,107 +9805,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60627</t>
+          <t>75755</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57037</t>
+          <t>74638</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62530</t>
+          <t>76352</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>344</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49271</t>
+          <t>65645</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43901</t>
+          <t>64690</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53238</t>
+          <t>66078</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>80,06%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>713</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>109898</t>
+          <t>141400</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>103888</t>
+          <t>140052</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>114912</t>
+          <t>142163</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,05%</t>
+          <t>99,43%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10035,107 +10035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13746</t>
+          <t>789</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9304</t>
+          <t>218</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19372</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36177</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29155</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45660</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>49923</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>40537</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>59314</t>
+          <t>5230</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -10148,107 +10148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>391</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>109925</t>
+          <t>73699</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>104299</t>
+          <t>72108</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>114367</t>
+          <t>74270</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>358</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>91854</t>
+          <t>66542</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>82371</t>
+          <t>64799</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>98876</t>
+          <t>67591</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>64,34%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>749</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>201779</t>
+          <t>140241</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>192388</t>
+          <t>138399</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>211165</t>
+          <t>141660</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,89%</t>
+          <t>98,63%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>767</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>251702</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10378,107 +10378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25761</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19666</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32752</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50206</t>
+          <t>7179</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>42404</t>
+          <t>4914</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>59172</t>
+          <t>9957</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>55</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>75966</t>
+          <t>11266</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>65756</t>
+          <t>8531</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>88176</t>
+          <t>14614</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -10491,107 +10491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>549</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>113606</t>
+          <t>100092</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>106615</t>
+          <t>97682</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>119701</t>
+          <t>101542</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,52%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,5%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,89%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>547</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81225</t>
+          <t>103861</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>72259</t>
+          <t>101083</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89027</t>
+          <t>106126</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>54,98%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>194831</t>
+          <t>203953</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>182621</t>
+          <t>200605</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>205041</t>
+          <t>206688</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>67,44%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>75,72%</t>
+          <t>96,04%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10721,107 +10721,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41308</t>
+          <t>10976</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33188</t>
+          <t>8404</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51041</t>
+          <t>13863</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>56694</t>
+          <t>15595</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49123</t>
+          <t>12541</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>64728</t>
+          <t>19236</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>41,1%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>54,15%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>159</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>98003</t>
+          <t>26572</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>87004</t>
+          <t>22289</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>111381</t>
+          <t>31029</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>46,96%</t>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -10834,107 +10834,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>76343</t>
+          <t>133442</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>66610</t>
+          <t>130555</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>84463</t>
+          <t>136014</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>90,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>721</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>62838</t>
+          <t>136861</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>54804</t>
+          <t>133220</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>70409</t>
+          <t>139915</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>45,85%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>1452</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>139180</t>
+          <t>270302</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>125802</t>
+          <t>265845</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>150179</t>
+          <t>274585</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>58,68%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>89,55%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>63,32%</t>
+          <t>92,49%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>799</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11064,107 +11064,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>47510</t>
+          <t>24384</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39797</t>
+          <t>20718</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>55810</t>
+          <t>28438</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>48,47%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>74653</t>
+          <t>28302</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>67079</t>
+          <t>24234</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>82102</t>
+          <t>33366</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>57,9%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>301</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>122164</t>
+          <t>52686</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>109888</t>
+          <t>46738</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>132772</t>
+          <t>58647</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>62,08%</t>
+          <t>20,85%</t>
         </is>
       </c>
     </row>
@@ -11177,107 +11177,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>589</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>50503</t>
+          <t>104881</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42203</t>
+          <t>100827</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>58216</t>
+          <t>108547</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>81,14%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>59,4%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>41207</t>
+          <t>123720</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>33758</t>
+          <t>118656</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>48781</t>
+          <t>127788</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>91710</t>
+          <t>228601</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>81102</t>
+          <t>222640</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>103986</t>
+          <t>234549</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>81,27%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>48,62%</t>
+          <t>83,38%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>857</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11407,107 +11407,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43459</t>
+          <t>33111</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37124</t>
+          <t>29271</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49104</t>
+          <t>37272</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>62,89%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>71,06%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64462</t>
+          <t>35530</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>58118</t>
+          <t>31540</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>70001</t>
+          <t>39869</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>72,95%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>65,77%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>79,22%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>412</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>107920</t>
+          <t>68641</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>98593</t>
+          <t>63027</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>116279</t>
+          <t>74469</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>68,54%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>33,81%</t>
         </is>
       </c>
     </row>
@@ -11520,107 +11520,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>446</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25643</t>
+          <t>71228</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>19998</t>
+          <t>67067</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31978</t>
+          <t>75068</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>64,28%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>71,95%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>491</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>23898</t>
+          <t>80392</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>18359</t>
+          <t>76053</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>30242</t>
+          <t>84382</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>69,35%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>65,61%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>72,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>937</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>49542</t>
+          <t>151620</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>41183</t>
+          <t>145792</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>58869</t>
+          <t>157234</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>31,46%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>66,19%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>71,39%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>704</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11750,107 +11750,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>54451</t>
+          <t>39916</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>49325</t>
+          <t>36196</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>58611</t>
+          <t>44149</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>78,91%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>71,48%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>361</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>99435</t>
+          <t>60461</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>94027</t>
+          <t>56022</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>103438</t>
+          <t>65263</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>612</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>153886</t>
+          <t>100377</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>146688</t>
+          <t>94235</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>159440</t>
+          <t>106942</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>80,0%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>48,41%</t>
         </is>
       </c>
     </row>
@@ -11863,107 +11863,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>14555</t>
+          <t>49170</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10395</t>
+          <t>44937</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19681</t>
+          <t>52890</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>59,37%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>14930</t>
+          <t>71366</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>10927</t>
+          <t>66564</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>20338</t>
+          <t>75805</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>742</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>29485</t>
+          <t>120536</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>23931</t>
+          <t>113971</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>36683</t>
+          <t>126678</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>57,34%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>801</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>114365</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>183371</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12093,107 +12093,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>690</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>230282</t>
+          <t>114243</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>212904</t>
+          <t>105535</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>249124</t>
+          <t>123091</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>877</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>393895</t>
+          <t>150262</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>373168</t>
+          <t>141128</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>413686</t>
+          <t>160032</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>624177</t>
+          <t>264506</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>594875</t>
+          <t>253413</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>651530</t>
+          <t>277916</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -12206,107 +12206,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>451202</t>
+          <t>608267</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>432360</t>
+          <t>599419</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>468580</t>
+          <t>616975</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>66,21%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>68,76%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>365223</t>
+          <t>648388</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>345432</t>
+          <t>638618</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>385950</t>
+          <t>657522</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>6976</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>816425</t>
+          <t>1256654</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>789072</t>
+          <t>1243244</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>845727</t>
+          <t>1267747</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>56,67%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>54,77%</t>
+          <t>81,73%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>83,34%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>681484</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>759118</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>8543</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1440602</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
